--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H2">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I2">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.1033984993903333</v>
+        <v>0.02882009126577778</v>
       </c>
       <c r="R2">
-        <v>0.9305864945129999</v>
+        <v>0.259380821392</v>
       </c>
       <c r="S2">
-        <v>0.05368288159658066</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="T2">
-        <v>0.06569540414747499</v>
+        <v>0.06932858672617494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H3">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I3">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>0.7879736410467777</v>
+        <v>0.3794169709928889</v>
       </c>
       <c r="R3">
-        <v>7.091762769421</v>
+        <v>3.414752738936</v>
       </c>
       <c r="S3">
-        <v>0.4091035742584035</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="T3">
-        <v>0.5006479505152766</v>
+        <v>0.9127119736118995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H4">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I4">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>8.52875891111111E-05</v>
+        <v>0.011123424312</v>
       </c>
       <c r="R4">
-        <v>0.0007675883019999999</v>
+        <v>0.066740545872</v>
       </c>
       <c r="S4">
-        <v>4.427998060809033E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="T4">
-        <v>5.418843279597975E-05</v>
+        <v>0.01783874265571248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,294 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2093803333333333</v>
+        <v>0.1008186666666667</v>
       </c>
       <c r="H5">
-        <v>0.6281409999999999</v>
+        <v>0.302456</v>
       </c>
       <c r="I5">
-        <v>0.4785017724587298</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5791826874314219</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.03018395478283333</v>
+        <v>5.017408977777778E-05</v>
       </c>
       <c r="R5">
-        <v>0.181103728697</v>
+        <v>0.000451566808</v>
       </c>
       <c r="S5">
-        <v>0.01567103662313762</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="T5">
-        <v>0.01278514433587438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.2281945</v>
-      </c>
-      <c r="H6">
-        <v>0.456389</v>
-      </c>
-      <c r="I6">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J6">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.493831</v>
-      </c>
-      <c r="N6">
-        <v>1.481493</v>
-      </c>
-      <c r="O6">
-        <v>0.1121895146192186</v>
-      </c>
-      <c r="P6">
-        <v>0.1134277760249069</v>
-      </c>
-      <c r="Q6">
-        <v>0.1126895181295</v>
-      </c>
-      <c r="R6">
-        <v>0.6761371087770001</v>
-      </c>
-      <c r="S6">
-        <v>0.05850663302263788</v>
-      </c>
-      <c r="T6">
-        <v>0.04773237187743192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2281945</v>
-      </c>
-      <c r="H7">
-        <v>0.456389</v>
-      </c>
-      <c r="I7">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J7">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.763360333333333</v>
-      </c>
-      <c r="N7">
-        <v>11.290081</v>
-      </c>
-      <c r="O7">
-        <v>0.85496773012202</v>
-      </c>
-      <c r="P7">
-        <v>0.8644042050627692</v>
-      </c>
-      <c r="Q7">
-        <v>0.8587781295848335</v>
-      </c>
-      <c r="R7">
-        <v>5.152668777509001</v>
-      </c>
-      <c r="S7">
-        <v>0.4458641558636163</v>
-      </c>
-      <c r="T7">
-        <v>0.3637562545474926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2281945</v>
-      </c>
-      <c r="H8">
-        <v>0.456389</v>
-      </c>
-      <c r="I8">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J8">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0004073333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.001222</v>
-      </c>
-      <c r="O8">
-        <v>9.253880164447964E-05</v>
-      </c>
-      <c r="P8">
-        <v>9.356017362379453E-05</v>
-      </c>
-      <c r="Q8">
-        <v>9.295122633333334E-05</v>
-      </c>
-      <c r="R8">
-        <v>0.000557707358</v>
-      </c>
-      <c r="S8">
-        <v>4.82588210363893E-05</v>
-      </c>
-      <c r="T8">
-        <v>3.937174082781478E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2281945</v>
-      </c>
-      <c r="H9">
-        <v>0.456389</v>
-      </c>
-      <c r="I9">
-        <v>0.5214982275412701</v>
-      </c>
-      <c r="J9">
-        <v>0.4208173125685781</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1441585</v>
-      </c>
-      <c r="N9">
-        <v>0.288317</v>
-      </c>
-      <c r="O9">
-        <v>0.03275021645711715</v>
-      </c>
-      <c r="P9">
-        <v>0.02207445873870014</v>
-      </c>
-      <c r="Q9">
-        <v>0.03289617682825</v>
-      </c>
-      <c r="R9">
-        <v>0.131584707313</v>
-      </c>
-      <c r="S9">
-        <v>0.01707917983397953</v>
-      </c>
-      <c r="T9">
-        <v>0.009289314402825757</v>
+        <v>0.0001206970062130259</v>
       </c>
     </row>
   </sheetData>
